--- a/开发日志.xlsx
+++ b/开发日志.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangdehao/Desktop/project/kaggle/腾讯算法赛/log/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiangxiaowei/Documents/compitition_data/tencent2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29816EE-7E30-824B-9F33-BB2F2919614E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AF5948-A686-1B49-818D-5A700119F558}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DE707ED0-C7C7-A249-B973-2A10012AE044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{DE707ED0-C7C7-A249-B973-2A10012AE044}"/>
   </bookViews>
   <sheets>
     <sheet name="数据摘要" sheetId="1" r:id="rId1"/>
+    <sheet name="指标体系" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>user_id</t>
   </si>
@@ -162,6 +161,46 @@
   </si>
   <si>
     <t>326个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/article/1613773</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/developer/article/1613819?from=10680</t>
+  </si>
+  <si>
+    <t>1. TI-ONE 开通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. TI-ONE 使用手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/document/product/436/13309?from=10680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. TI-ONE Notebook指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.qq.com/doc/DSXRGTHVheFVVWE1u</t>
+  </si>
+  <si>
+    <t>4. TI-ONE 使用手册FAQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 TI-ONE 训练比赛任务时，计算资源怎样选择会比较好？</t>
+  </si>
+  <si>
+    <t>建议参赛选手使用 TI.3XLARGE24.12core24g。</t>
+  </si>
+  <si>
+    <t>å</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,13 +247,50 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -241,12 +317,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -280,9 +359,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,227 +692,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5A53CDE-0FA3-544B-9DBC-93EF4900FA14}">
-  <dimension ref="A2:D22"/>
+  <sheetPr>
+    <tabColor theme="8"/>
+  </sheetPr>
+  <dimension ref="B2:J31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="98.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="21">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="2:10" ht="23" customHeight="1">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="2:10" ht="23" customHeight="1">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="2:10" ht="23" customHeight="1">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="2:10" ht="23" customHeight="1">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="2:10" ht="23" customHeight="1">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="21">
-      <c r="A8" s="3" t="s">
+    <row r="7" spans="2:10" ht="23" customHeight="1">
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="23" customHeight="1">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="2:10" ht="23" customHeight="1">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="38">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="2:10" ht="23" customHeight="1">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="76">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="2:10" ht="23" customHeight="1">
+      <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="2:10" ht="23" customHeight="1">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="38">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="2:10" ht="23" customHeight="1">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="21">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="2:10" ht="23" customHeight="1">
+      <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="2:10" ht="23" customHeight="1">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="19">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="2:5" ht="23" customHeight="1">
+      <c r="B17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="76">
-      <c r="A18" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" ht="23" customHeight="1">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="57">
-      <c r="A19" s="8" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" ht="23" customHeight="1">
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="2:5" ht="23" customHeight="1">
+      <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="38">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="2:5" ht="23" customHeight="1">
+      <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="38">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="2:5" ht="23" customHeight="1">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="23" customHeight="1">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="12" customFormat="1" ht="23" customHeight="1">
+      <c r="B25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="23" customHeight="1">
+      <c r="B26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="23" customHeight="1">
+      <c r="B27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="23" customHeight="1">
+      <c r="B28" s="12"/>
+      <c r="C28" s="14"/>
+    </row>
+    <row r="30" spans="2:5" ht="23" customHeight="1">
+      <c r="B30" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="23" customHeight="1">
+      <c r="B31" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{550C4FD9-A0DE-BD44-A27A-1158CDC55F24}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{02FB7E05-E8A8-6940-AAF3-2A81829FEE0E}"/>
+    <hyperlink ref="C26" r:id="rId3" xr:uid="{8358929A-BA91-7244-BD36-B410F382B06D}"/>
+    <hyperlink ref="C27" r:id="rId4" xr:uid="{49CA7FB4-70EA-C649-A0E2-4E0B753FE166}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCC9451-AF5C-4A4D-A961-4DB6CC0E7AF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>